--- a/JDA_v2/src/test/java/testData/DBoutput.xlsx
+++ b/JDA_v2/src/test/java/testData/DBoutput.xlsx
@@ -56,58 +56,58 @@
     <t>U_CREATE_DT</t>
   </si>
   <si>
+    <t>331079</t>
+  </si>
+  <si>
+    <t>96402</t>
+  </si>
+  <si>
+    <t>2019-12-17 00:00:00.0</t>
+  </si>
+  <si>
+    <t>237940</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2020-01-25 00:00:00.0</t>
+  </si>
+  <si>
+    <t>9501-1000</t>
+  </si>
+  <si>
+    <t>2019-12-19 00:00:00.0</t>
+  </si>
+  <si>
+    <t>1970-01-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2019-12-20 00:00:00.0</t>
+  </si>
+  <si>
+    <t>86247</t>
+  </si>
+  <si>
+    <t>2019-03-11 00:00:00.0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>10003</t>
   </si>
   <si>
-    <t>86247</t>
-  </si>
-  <si>
     <t>2017-11-14 00:00:00.0</t>
   </si>
   <si>
-    <t>237940</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>2020-01-17 00:00:00.0</t>
-  </si>
-  <si>
-    <t>9501-1000</t>
-  </si>
-  <si>
-    <t>2019-03-11 00:00:00.0</t>
-  </si>
-  <si>
-    <t>1970-01-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2019-12-20 00:00:00.0</t>
-  </si>
-  <si>
     <t>2019-03-12 00:00:00.0</t>
-  </si>
-  <si>
-    <t>331079</t>
-  </si>
-  <si>
-    <t>96402</t>
-  </si>
-  <si>
-    <t>2019-12-17 00:00:00.0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2019-12-19 00:00:00.0</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -243,24 +243,24 @@
         <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -269,13 +269,13 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
@@ -287,24 +287,24 @@
         <v>24</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -313,13 +313,13 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
         <v>22</v>
@@ -331,7 +331,7 @@
         <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
